--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3830828.527575316</v>
+        <v>3832589.057878102</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>121.3416305177573</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>22.86125478512688</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>51.06561173382077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>218.5174356271595</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.05778319390867</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247737</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734129911</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414546</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380505</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>19.37905693789837</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>218.8748435506854</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>177.2979137777583</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>14.53306611597334</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,13 +2134,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444138</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
-        <v>216.8180354051593</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812011</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91555826189057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.480551467095</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,16 +4185,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1698.509627919562</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3302.513645058537</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3302.513645058537</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>3048.983168332374</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2717.920280988803</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180642</v>
+        <v>2365.151625718689</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919562</v>
+        <v>1991.685867457609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919562</v>
+        <v>1601.546535481797</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080122</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738586</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>583.8261120459517</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>433.709472633616</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512229</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4527,13 +4527,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
         <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040983</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2268.308520734408</v>
+        <v>1215.758282883553</v>
       </c>
       <c r="C5" t="n">
-        <v>1899.346003793997</v>
+        <v>846.7957659431409</v>
       </c>
       <c r="D5" t="n">
-        <v>1541.080305187246</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="E5" t="n">
-        <v>1155.292052589002</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3061477993945</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>329.2336976443909</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609173</v>
+        <v>3303.325232524415</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609173</v>
+        <v>3049.794755798251</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265603</v>
+        <v>2718.73186845468</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995488</v>
+        <v>2365.963213184566</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734408</v>
+        <v>1992.497454923486</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734408</v>
+        <v>1602.358122947674</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4643,31 +4643,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215814</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410641</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886744</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533344</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.1808689801003</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C7" t="n">
-        <v>532.2446860521934</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581906</v>
@@ -4743,34 +4743,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1716.033858927544</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1426.930992053188</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1172.246503847301</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>882.82933381034</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>882.82933381034</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y7" t="n">
-        <v>882.82933381034</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1822.632236038045</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1453.669719097633</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1095.404020490883</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>709.6157678926384</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>298.6298631030308</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>287.5978169884314</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
@@ -4810,46 +4810,46 @@
         <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3146.517019813456</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3146.517019813456</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3146.517019813456</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2209.232076102167</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5545,22 +5545,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,28 +5749,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5980,19 +5980,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6205,16 +6205,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1978.054428916699</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192377</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111693</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7611,10 +7611,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.255978819893812e-12</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5874149221289997</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405077</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>637737.494060001</v>
+        <v>637737.4940600011</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
         <v>786967.934697756</v>
@@ -26340,16 +26340,16 @@
         <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977557</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.6059387892019e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818157</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818151</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818163</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,19 +26432,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683049</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728346.8595894924</v>
+        <v>-728346.8595894915</v>
       </c>
       <c r="C6" t="n">
         <v>600397.886138101</v>
       </c>
       <c r="D6" t="n">
-        <v>600397.8861381022</v>
+        <v>600397.8861381011</v>
       </c>
       <c r="E6" t="n">
-        <v>347088.6996653061</v>
+        <v>347401.340994228</v>
       </c>
       <c r="F6" t="n">
-        <v>672501.1614726612</v>
+        <v>672813.8028015823</v>
       </c>
       <c r="G6" t="n">
-        <v>672501.1614726611</v>
+        <v>672813.8028015828</v>
       </c>
       <c r="H6" t="n">
-        <v>672501.1614726615</v>
+        <v>672813.8028015827</v>
       </c>
       <c r="I6" t="n">
-        <v>672501.1614726613</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="J6" t="n">
-        <v>454969.9590753838</v>
+        <v>455282.6004043052</v>
       </c>
       <c r="K6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="L6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015828</v>
       </c>
       <c r="M6" t="n">
-        <v>587446.1335371495</v>
+        <v>587758.7748660713</v>
       </c>
       <c r="N6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015825</v>
       </c>
       <c r="O6" t="n">
-        <v>672501.1614726613</v>
+        <v>672813.8028015826</v>
       </c>
       <c r="P6" t="n">
-        <v>672501.1614726614</v>
+        <v>672813.8028015827</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>243.9312612532502</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>86.32650700304896</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.35543628911047</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>76.09032876016093</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>181.8601869457115</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276412</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>200.1698923382708</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>75.73292083663506</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>26.62005636186188</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992098</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-8.139557993131504e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953991</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563571</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451122</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752262</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802171</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895882</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>163.1438255932938</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32323,31 +32323,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193722</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54758114884936</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
